--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,6 +1529,118 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112126339</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Brännberget (N om reservatet), Vb</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>760438.3549515785</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7210190.261124903</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Emil Larsson, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,6 +1641,2442 @@
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112178537</v>
+      </c>
+      <c r="B10" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>760381.9744965171</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7210146.529370631</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112178539</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>760353.9373439865</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7210135.125039705</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112178521</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>760097.073267661</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7210441.468355349</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112178535</v>
+      </c>
+      <c r="B13" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>760388.8991390549</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7210155.236686617</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112178528</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>760519.3027908609</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7210363.215616781</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112178522</v>
+      </c>
+      <c r="B15" t="n">
+        <v>85313</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3739</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Persiljespindling</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cortinarius sulfurinus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Quél.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>760108.4214299649</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7210438.621165697</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112178519</v>
+      </c>
+      <c r="B16" t="n">
+        <v>85265</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kryddspindling</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cortinarius percomis</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>760103.9025051796</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7210465.942328223</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112178531</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>760437.3395934256</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7210196.995421174</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112178517</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>760127.9805404337</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7210459.089532377</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112178530</v>
+      </c>
+      <c r="B19" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>760431.4644920572</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7210190.938400387</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112178524</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>760202.6883450996</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7210419.986488183</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112178538</v>
+      </c>
+      <c r="B21" t="n">
+        <v>98446</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>222771</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Actaea spicata</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>760363.1882049012</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7210126.977717041</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112178516</v>
+      </c>
+      <c r="B22" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>760125.6753482306</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7210470.827303733</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112178518</v>
+      </c>
+      <c r="B23" t="n">
+        <v>85313</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3739</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Persiljespindling</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cortinarius sulfurinus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Quél.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>760120.1521884119</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7210455.847930443</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112178540</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>760340.3266414073</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7210119.863575823</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112178520</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96381</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>219874</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Platanthera bifolia</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>760092.171705926</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7210448.71569029</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112178514</v>
+      </c>
+      <c r="B26" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>760067.8546479589</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7210453.415979167</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112178529</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>760450.1759828038</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7210211.336565314</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112178532</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>760410.7421044984</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7210178.893385882</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112178526</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>760255.8071061021</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7210383.689652575</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112178515</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Brännberget, Skellefteå, Vb</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>760088.889042889</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7210466.764065335</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Emil Larsson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -1643,10 +1643,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178537</v>
+        <v>112178532</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1655,25 +1655,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>760381.9744965171</v>
+        <v>760410.7421044984</v>
       </c>
       <c r="R10" t="n">
-        <v>7210146.529370631</v>
+        <v>7210178.893385882</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178539</v>
+        <v>112178521</v>
       </c>
       <c r="B11" t="n">
         <v>90332</v>
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>760353.9373439865</v>
+        <v>760097.073267661</v>
       </c>
       <c r="R11" t="n">
-        <v>7210135.125039705</v>
+        <v>7210441.468355349</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178521</v>
+        <v>112178517</v>
       </c>
       <c r="B12" t="n">
         <v>90332</v>
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>760097.073267661</v>
+        <v>760127.9805404337</v>
       </c>
       <c r="R12" t="n">
-        <v>7210441.468355349</v>
+        <v>7210459.089532377</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178528</v>
+        <v>112178526</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2123,21 +2123,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>760519.3027908609</v>
+        <v>760255.8071061021</v>
       </c>
       <c r="R14" t="n">
-        <v>7210363.215616781</v>
+        <v>7210383.689652575</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178522</v>
+        <v>112178538</v>
       </c>
       <c r="B15" t="n">
-        <v>85313</v>
+        <v>98446</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2235,25 +2235,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3739</v>
+        <v>222771</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>760108.4214299649</v>
+        <v>760363.1882049012</v>
       </c>
       <c r="R15" t="n">
-        <v>7210438.621165697</v>
+        <v>7210126.977717041</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178519</v>
+        <v>112178530</v>
       </c>
       <c r="B16" t="n">
-        <v>85265</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2351,25 +2351,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1988</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>760103.9025051796</v>
+        <v>760431.4644920572</v>
       </c>
       <c r="R16" t="n">
-        <v>7210465.942328223</v>
+        <v>7210190.938400387</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178531</v>
+        <v>112178515</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2467,25 +2467,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>760437.3395934256</v>
+        <v>760088.889042889</v>
       </c>
       <c r="R17" t="n">
-        <v>7210196.995421174</v>
+        <v>7210466.764065335</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178517</v>
+        <v>112178518</v>
       </c>
       <c r="B18" t="n">
-        <v>90332</v>
+        <v>85313</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2583,25 +2583,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4769</v>
+        <v>3739</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>760127.9805404337</v>
+        <v>760120.1521884119</v>
       </c>
       <c r="R18" t="n">
-        <v>7210459.089532377</v>
+        <v>7210455.847930443</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178530</v>
+        <v>112178514</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>101703</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2699,25 +2699,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>222412</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>760431.4644920572</v>
+        <v>760067.8546479589</v>
       </c>
       <c r="R19" t="n">
-        <v>7210190.938400387</v>
+        <v>7210453.415979167</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178524</v>
+        <v>112178516</v>
       </c>
       <c r="B20" t="n">
-        <v>90678</v>
+        <v>89183</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2819,21 +2819,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>760202.6883450996</v>
+        <v>760125.6753482306</v>
       </c>
       <c r="R20" t="n">
-        <v>7210419.986488183</v>
+        <v>7210470.827303733</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178538</v>
+        <v>112178519</v>
       </c>
       <c r="B21" t="n">
-        <v>98446</v>
+        <v>85265</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2935,21 +2935,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222771</v>
+        <v>1988</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2959,10 +2959,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>760363.1882049012</v>
+        <v>760103.9025051796</v>
       </c>
       <c r="R21" t="n">
-        <v>7210126.977717041</v>
+        <v>7210465.942328223</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3035,10 +3035,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178516</v>
+        <v>112178520</v>
       </c>
       <c r="B22" t="n">
-        <v>89183</v>
+        <v>96381</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3051,21 +3051,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3215</v>
+        <v>219874</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>760125.6753482306</v>
+        <v>760092.171705926</v>
       </c>
       <c r="R22" t="n">
-        <v>7210470.827303733</v>
+        <v>7210448.71569029</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178518</v>
+        <v>112178531</v>
       </c>
       <c r="B23" t="n">
-        <v>85313</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3163,25 +3163,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3739</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>760120.1521884119</v>
+        <v>760437.3395934256</v>
       </c>
       <c r="R23" t="n">
-        <v>7210455.847930443</v>
+        <v>7210196.995421174</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3267,10 +3267,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178540</v>
+        <v>112178522</v>
       </c>
       <c r="B24" t="n">
-        <v>90332</v>
+        <v>85313</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3279,25 +3279,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4769</v>
+        <v>3739</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>760340.3266414073</v>
+        <v>760108.4214299649</v>
       </c>
       <c r="R24" t="n">
-        <v>7210119.863575823</v>
+        <v>7210438.621165697</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3383,10 +3383,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178520</v>
+        <v>112178528</v>
       </c>
       <c r="B25" t="n">
-        <v>96381</v>
+        <v>90332</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3399,21 +3399,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>219874</v>
+        <v>4769</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>760092.171705926</v>
+        <v>760519.3027908609</v>
       </c>
       <c r="R25" t="n">
-        <v>7210448.71569029</v>
+        <v>7210363.215616781</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178514</v>
+        <v>112178537</v>
       </c>
       <c r="B26" t="n">
-        <v>101703</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3511,25 +3511,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222412</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>760067.8546479589</v>
+        <v>760381.9744965171</v>
       </c>
       <c r="R26" t="n">
-        <v>7210453.415979167</v>
+        <v>7210146.529370631</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178529</v>
+        <v>112178524</v>
       </c>
       <c r="B27" t="n">
-        <v>90332</v>
+        <v>90678</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3631,21 +3631,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4769</v>
+        <v>4366</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3655,10 +3655,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>760450.1759828038</v>
+        <v>760202.6883450996</v>
       </c>
       <c r="R27" t="n">
-        <v>7210211.336565314</v>
+        <v>7210419.986488183</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178532</v>
+        <v>112178529</v>
       </c>
       <c r="B28" t="n">
         <v>90332</v>
@@ -3771,10 +3771,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>760410.7421044984</v>
+        <v>760450.1759828038</v>
       </c>
       <c r="R28" t="n">
-        <v>7210178.893385882</v>
+        <v>7210211.336565314</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178526</v>
+        <v>112178539</v>
       </c>
       <c r="B29" t="n">
-        <v>90666</v>
+        <v>90332</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3863,21 +3863,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>4769</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3887,10 +3887,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>760255.8071061021</v>
+        <v>760353.9373439865</v>
       </c>
       <c r="R29" t="n">
-        <v>7210383.689652575</v>
+        <v>7210135.125039705</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178515</v>
+        <v>112178540</v>
       </c>
       <c r="B30" t="n">
         <v>90332</v>
@@ -4003,10 +4003,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>760088.889042889</v>
+        <v>760340.3266414073</v>
       </c>
       <c r="R30" t="n">
-        <v>7210466.764065335</v>
+        <v>7210119.863575823</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>760438.3549515785</v>
+        <v>760438</v>
       </c>
       <c r="R9" t="n">
-        <v>7210190.261124903</v>
+        <v>7210190</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1604,19 +1604,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1643,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178532</v>
+        <v>112178538</v>
       </c>
       <c r="B10" t="n">
-        <v>90332</v>
+        <v>98446</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1659,21 +1649,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>222771</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1683,10 +1673,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>760410.7421044984</v>
+        <v>760363</v>
       </c>
       <c r="R10" t="n">
-        <v>7210178.893385882</v>
+        <v>7210127</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1716,19 +1706,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1759,7 +1739,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178521</v>
+        <v>112178532</v>
       </c>
       <c r="B11" t="n">
         <v>90332</v>
@@ -1799,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>760097.073267661</v>
+        <v>760411</v>
       </c>
       <c r="R11" t="n">
-        <v>7210441.468355349</v>
+        <v>7210179</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1832,19 +1812,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1875,7 +1845,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178517</v>
+        <v>112178528</v>
       </c>
       <c r="B12" t="n">
         <v>90332</v>
@@ -1915,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>760127.9805404337</v>
+        <v>760519</v>
       </c>
       <c r="R12" t="n">
-        <v>7210459.089532377</v>
+        <v>7210363</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,19 +1918,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1991,10 +1951,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178535</v>
+        <v>112178519</v>
       </c>
       <c r="B13" t="n">
-        <v>101703</v>
+        <v>85265</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2007,21 +1967,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222412</v>
+        <v>1988</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2031,10 +1991,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>760388.8991390549</v>
+        <v>760104</v>
       </c>
       <c r="R13" t="n">
-        <v>7210155.236686617</v>
+        <v>7210466</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2064,19 +2024,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2107,10 +2057,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178526</v>
+        <v>112178520</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>96381</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2123,21 +2073,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>219874</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2147,10 +2097,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>760255.8071061021</v>
+        <v>760092</v>
       </c>
       <c r="R14" t="n">
-        <v>7210383.689652575</v>
+        <v>7210449</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2180,19 +2130,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2223,10 +2163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178538</v>
+        <v>112178524</v>
       </c>
       <c r="B15" t="n">
-        <v>98446</v>
+        <v>90678</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2239,21 +2179,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222771</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2263,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>760363.1882049012</v>
+        <v>760203</v>
       </c>
       <c r="R15" t="n">
-        <v>7210126.977717041</v>
+        <v>7210420</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2296,19 +2236,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2339,10 +2269,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178530</v>
+        <v>112178539</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2351,25 +2281,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2379,10 +2309,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>760431.4644920572</v>
+        <v>760354</v>
       </c>
       <c r="R16" t="n">
-        <v>7210190.938400387</v>
+        <v>7210135</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2412,19 +2342,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2455,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178515</v>
+        <v>112178516</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2471,21 +2391,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2495,10 +2415,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>760088.889042889</v>
+        <v>760126</v>
       </c>
       <c r="R17" t="n">
-        <v>7210466.764065335</v>
+        <v>7210471</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2528,19 +2448,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2571,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178518</v>
+        <v>112178515</v>
       </c>
       <c r="B18" t="n">
-        <v>85313</v>
+        <v>90332</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2583,25 +2493,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3739</v>
+        <v>4769</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2611,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>760120.1521884119</v>
+        <v>760089</v>
       </c>
       <c r="R18" t="n">
-        <v>7210455.847930443</v>
+        <v>7210467</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2644,19 +2554,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2687,10 +2587,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178514</v>
+        <v>112178517</v>
       </c>
       <c r="B19" t="n">
-        <v>101703</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2703,21 +2603,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2727,10 +2627,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>760067.8546479589</v>
+        <v>760128</v>
       </c>
       <c r="R19" t="n">
-        <v>7210453.415979167</v>
+        <v>7210459</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2760,19 +2660,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2803,10 +2693,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178516</v>
+        <v>112178518</v>
       </c>
       <c r="B20" t="n">
-        <v>89183</v>
+        <v>85313</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2815,25 +2705,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3215</v>
+        <v>3739</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2843,10 +2733,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>760125.6753482306</v>
+        <v>760120</v>
       </c>
       <c r="R20" t="n">
-        <v>7210470.827303733</v>
+        <v>7210456</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2876,19 +2766,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2919,10 +2799,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178519</v>
+        <v>112178535</v>
       </c>
       <c r="B21" t="n">
-        <v>85265</v>
+        <v>101703</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2935,21 +2815,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1988</v>
+        <v>222412</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2959,10 +2839,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>760103.9025051796</v>
+        <v>760389</v>
       </c>
       <c r="R21" t="n">
-        <v>7210465.942328223</v>
+        <v>7210155</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2992,19 +2872,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3035,10 +2905,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178520</v>
+        <v>112178531</v>
       </c>
       <c r="B22" t="n">
-        <v>96381</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3047,25 +2917,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219874</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3075,10 +2945,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>760092.171705926</v>
+        <v>760437</v>
       </c>
       <c r="R22" t="n">
-        <v>7210448.71569029</v>
+        <v>7210197</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3108,19 +2978,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3151,10 +3011,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178531</v>
+        <v>112178526</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3163,25 +3023,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3191,10 +3051,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>760437.3395934256</v>
+        <v>760256</v>
       </c>
       <c r="R23" t="n">
-        <v>7210196.995421174</v>
+        <v>7210384</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3224,19 +3084,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3267,10 +3117,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178522</v>
+        <v>112178521</v>
       </c>
       <c r="B24" t="n">
-        <v>85313</v>
+        <v>90332</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3279,25 +3129,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3739</v>
+        <v>4769</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3307,10 +3157,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>760108.4214299649</v>
+        <v>760097</v>
       </c>
       <c r="R24" t="n">
-        <v>7210438.621165697</v>
+        <v>7210441</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3340,19 +3190,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3383,10 +3223,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178528</v>
+        <v>112178514</v>
       </c>
       <c r="B25" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3399,21 +3239,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3423,10 +3263,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>760519.3027908609</v>
+        <v>760068</v>
       </c>
       <c r="R25" t="n">
-        <v>7210363.215616781</v>
+        <v>7210453</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3456,19 +3296,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3499,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178537</v>
+        <v>112178540</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3511,25 +3341,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3539,10 +3369,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>760381.9744965171</v>
+        <v>760340</v>
       </c>
       <c r="R26" t="n">
-        <v>7210146.529370631</v>
+        <v>7210120</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3572,19 +3402,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3615,10 +3435,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178524</v>
+        <v>112178537</v>
       </c>
       <c r="B27" t="n">
-        <v>90678</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3627,25 +3447,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3655,10 +3475,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>760202.6883450996</v>
+        <v>760382</v>
       </c>
       <c r="R27" t="n">
-        <v>7210419.986488183</v>
+        <v>7210147</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3688,19 +3508,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3731,10 +3541,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178529</v>
+        <v>112178522</v>
       </c>
       <c r="B28" t="n">
-        <v>90332</v>
+        <v>85313</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3743,25 +3553,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4769</v>
+        <v>3739</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3771,10 +3581,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>760450.1759828038</v>
+        <v>760108</v>
       </c>
       <c r="R28" t="n">
-        <v>7210211.336565314</v>
+        <v>7210439</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3804,19 +3614,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3847,10 +3647,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178539</v>
+        <v>112178530</v>
       </c>
       <c r="B29" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3859,25 +3659,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3887,10 +3687,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>760353.9373439865</v>
+        <v>760431</v>
       </c>
       <c r="R29" t="n">
-        <v>7210135.125039705</v>
+        <v>7210191</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3920,19 +3720,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3963,7 +3753,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178540</v>
+        <v>112178529</v>
       </c>
       <c r="B30" t="n">
         <v>90332</v>
@@ -4003,10 +3793,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>760340.3266414073</v>
+        <v>760450</v>
       </c>
       <c r="R30" t="n">
-        <v>7210119.863575823</v>
+        <v>7210211</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4036,19 +3826,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -1534,7 +1534,7 @@
         <v>112126339</v>
       </c>
       <c r="B9" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178538</v>
+        <v>112178537</v>
       </c>
       <c r="B10" t="n">
-        <v>98446</v>
+        <v>96720</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1645,25 +1645,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>760363</v>
+        <v>760382</v>
       </c>
       <c r="R10" t="n">
-        <v>7210127</v>
+        <v>7210147</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178532</v>
+        <v>112178540</v>
       </c>
       <c r="B11" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>760411</v>
+        <v>760340</v>
       </c>
       <c r="R11" t="n">
-        <v>7210179</v>
+        <v>7210120</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178528</v>
+        <v>112178530</v>
       </c>
       <c r="B12" t="n">
-        <v>90332</v>
+        <v>96720</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,25 +1857,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>760519</v>
+        <v>760431</v>
       </c>
       <c r="R12" t="n">
-        <v>7210363</v>
+        <v>7210191</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178519</v>
+        <v>112178522</v>
       </c>
       <c r="B13" t="n">
-        <v>85265</v>
+        <v>85434</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,25 +1963,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1988</v>
+        <v>3739</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>760104</v>
+        <v>760108</v>
       </c>
       <c r="R13" t="n">
-        <v>7210466</v>
+        <v>7210439</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178520</v>
+        <v>112178516</v>
       </c>
       <c r="B14" t="n">
-        <v>96381</v>
+        <v>89317</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2073,21 +2073,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219874</v>
+        <v>3215</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2097,10 +2097,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>760092</v>
+        <v>760126</v>
       </c>
       <c r="R14" t="n">
-        <v>7210449</v>
+        <v>7210471</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178524</v>
+        <v>112178514</v>
       </c>
       <c r="B15" t="n">
-        <v>90678</v>
+        <v>102166</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2179,21 +2179,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>222412</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>760203</v>
+        <v>760068</v>
       </c>
       <c r="R15" t="n">
-        <v>7210420</v>
+        <v>7210453</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178539</v>
+        <v>112178529</v>
       </c>
       <c r="B16" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>760354</v>
+        <v>760450</v>
       </c>
       <c r="R16" t="n">
-        <v>7210135</v>
+        <v>7210211</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178516</v>
+        <v>112178521</v>
       </c>
       <c r="B17" t="n">
-        <v>89183</v>
+        <v>90466</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2391,21 +2391,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>760126</v>
+        <v>760097</v>
       </c>
       <c r="R17" t="n">
-        <v>7210471</v>
+        <v>7210441</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178515</v>
+        <v>112178519</v>
       </c>
       <c r="B18" t="n">
-        <v>90332</v>
+        <v>85386</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2497,21 +2497,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4769</v>
+        <v>1988</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>760089</v>
+        <v>760104</v>
       </c>
       <c r="R18" t="n">
-        <v>7210467</v>
+        <v>7210466</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178517</v>
+        <v>112178532</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2627,10 +2627,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>760128</v>
+        <v>760411</v>
       </c>
       <c r="R19" t="n">
-        <v>7210459</v>
+        <v>7210179</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2696,7 +2696,7 @@
         <v>112178518</v>
       </c>
       <c r="B20" t="n">
-        <v>85313</v>
+        <v>85434</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178535</v>
+        <v>112178526</v>
       </c>
       <c r="B21" t="n">
-        <v>101703</v>
+        <v>90800</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2815,21 +2815,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222412</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>760389</v>
+        <v>760256</v>
       </c>
       <c r="R21" t="n">
-        <v>7210155</v>
+        <v>7210384</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178531</v>
+        <v>112178528</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>90466</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2917,25 +2917,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2945,10 +2945,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>760437</v>
+        <v>760519</v>
       </c>
       <c r="R22" t="n">
-        <v>7210197</v>
+        <v>7210363</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178526</v>
+        <v>112178515</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>90466</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3027,21 +3027,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>4769</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>760256</v>
+        <v>760089</v>
       </c>
       <c r="R23" t="n">
-        <v>7210384</v>
+        <v>7210467</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178521</v>
+        <v>112178531</v>
       </c>
       <c r="B24" t="n">
-        <v>90332</v>
+        <v>96720</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3129,25 +3129,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3157,10 +3157,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>760097</v>
+        <v>760437</v>
       </c>
       <c r="R24" t="n">
-        <v>7210441</v>
+        <v>7210197</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178514</v>
+        <v>112178517</v>
       </c>
       <c r="B25" t="n">
-        <v>101703</v>
+        <v>90466</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3239,21 +3239,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>760068</v>
+        <v>760128</v>
       </c>
       <c r="R25" t="n">
-        <v>7210453</v>
+        <v>7210459</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178540</v>
+        <v>112178539</v>
       </c>
       <c r="B26" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>760340</v>
+        <v>760354</v>
       </c>
       <c r="R26" t="n">
-        <v>7210120</v>
+        <v>7210135</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178537</v>
+        <v>112178538</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>98872</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3447,25 +3447,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>760382</v>
+        <v>760363</v>
       </c>
       <c r="R27" t="n">
-        <v>7210147</v>
+        <v>7210127</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178522</v>
+        <v>112178535</v>
       </c>
       <c r="B28" t="n">
-        <v>85313</v>
+        <v>102166</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3553,25 +3553,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3739</v>
+        <v>222412</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>760108</v>
+        <v>760389</v>
       </c>
       <c r="R28" t="n">
-        <v>7210439</v>
+        <v>7210155</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178530</v>
+        <v>112178520</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>96753</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3659,25 +3659,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>219874</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>760431</v>
+        <v>760092</v>
       </c>
       <c r="R29" t="n">
-        <v>7210191</v>
+        <v>7210449</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178529</v>
+        <v>112178524</v>
       </c>
       <c r="B30" t="n">
-        <v>90332</v>
+        <v>90812</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3769,21 +3769,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4769</v>
+        <v>4366</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3793,10 +3793,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>760450</v>
+        <v>760203</v>
       </c>
       <c r="R30" t="n">
-        <v>7210211</v>
+        <v>7210420</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -2693,10 +2693,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178518</v>
+        <v>112178526</v>
       </c>
       <c r="B20" t="n">
-        <v>85434</v>
+        <v>90800</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2705,25 +2705,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3739</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>760120</v>
+        <v>760256</v>
       </c>
       <c r="R20" t="n">
-        <v>7210456</v>
+        <v>7210384</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178526</v>
+        <v>112178518</v>
       </c>
       <c r="B21" t="n">
-        <v>90800</v>
+        <v>85434</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2811,25 +2811,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>3739</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>760256</v>
+        <v>760120</v>
       </c>
       <c r="R21" t="n">
-        <v>7210384</v>
+        <v>7210456</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -1534,7 +1534,7 @@
         <v>112126339</v>
       </c>
       <c r="B9" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178537</v>
+        <v>112178531</v>
       </c>
       <c r="B10" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>760382</v>
+        <v>760437</v>
       </c>
       <c r="R10" t="n">
-        <v>7210147</v>
+        <v>7210197</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178540</v>
+        <v>112178532</v>
       </c>
       <c r="B11" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>760340</v>
+        <v>760411</v>
       </c>
       <c r="R11" t="n">
-        <v>7210120</v>
+        <v>7210179</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178530</v>
+        <v>112178540</v>
       </c>
       <c r="B12" t="n">
-        <v>96720</v>
+        <v>90480</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,25 +1857,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>760431</v>
+        <v>760340</v>
       </c>
       <c r="R12" t="n">
-        <v>7210191</v>
+        <v>7210120</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178522</v>
+        <v>112178517</v>
       </c>
       <c r="B13" t="n">
-        <v>85434</v>
+        <v>90480</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,25 +1963,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3739</v>
+        <v>4769</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>760108</v>
+        <v>760128</v>
       </c>
       <c r="R13" t="n">
-        <v>7210439</v>
+        <v>7210459</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178516</v>
+        <v>112178515</v>
       </c>
       <c r="B14" t="n">
-        <v>89317</v>
+        <v>90480</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2073,21 +2073,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2097,10 +2097,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>760126</v>
+        <v>760089</v>
       </c>
       <c r="R14" t="n">
-        <v>7210471</v>
+        <v>7210467</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178514</v>
+        <v>112178521</v>
       </c>
       <c r="B15" t="n">
-        <v>102166</v>
+        <v>90480</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2179,21 +2179,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>760068</v>
+        <v>760097</v>
       </c>
       <c r="R15" t="n">
-        <v>7210453</v>
+        <v>7210441</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178529</v>
+        <v>112178524</v>
       </c>
       <c r="B16" t="n">
-        <v>90466</v>
+        <v>90826</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2285,21 +2285,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4769</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>760450</v>
+        <v>760203</v>
       </c>
       <c r="R16" t="n">
-        <v>7210211</v>
+        <v>7210420</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178521</v>
+        <v>112178538</v>
       </c>
       <c r="B17" t="n">
-        <v>90466</v>
+        <v>98891</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2391,21 +2391,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>222771</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>760097</v>
+        <v>760363</v>
       </c>
       <c r="R17" t="n">
-        <v>7210441</v>
+        <v>7210127</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178519</v>
+        <v>112178530</v>
       </c>
       <c r="B18" t="n">
-        <v>85386</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2493,25 +2493,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1988</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>760104</v>
+        <v>760431</v>
       </c>
       <c r="R18" t="n">
-        <v>7210466</v>
+        <v>7210191</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178532</v>
+        <v>112178519</v>
       </c>
       <c r="B19" t="n">
-        <v>90466</v>
+        <v>85400</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2603,21 +2603,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>1988</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2627,10 +2627,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>760411</v>
+        <v>760104</v>
       </c>
       <c r="R19" t="n">
-        <v>7210179</v>
+        <v>7210466</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178526</v>
+        <v>112178535</v>
       </c>
       <c r="B20" t="n">
-        <v>90800</v>
+        <v>102192</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2709,21 +2709,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>222412</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>760256</v>
+        <v>760389</v>
       </c>
       <c r="R20" t="n">
-        <v>7210384</v>
+        <v>7210155</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2802,7 +2802,7 @@
         <v>112178518</v>
       </c>
       <c r="B21" t="n">
-        <v>85434</v>
+        <v>85448</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178528</v>
+        <v>112178520</v>
       </c>
       <c r="B22" t="n">
-        <v>90466</v>
+        <v>96768</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2921,21 +2921,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4769</v>
+        <v>219874</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2945,10 +2945,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>760519</v>
+        <v>760092</v>
       </c>
       <c r="R22" t="n">
-        <v>7210363</v>
+        <v>7210449</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178515</v>
+        <v>112178529</v>
       </c>
       <c r="B23" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>760089</v>
+        <v>760450</v>
       </c>
       <c r="R23" t="n">
-        <v>7210467</v>
+        <v>7210211</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178531</v>
+        <v>112178528</v>
       </c>
       <c r="B24" t="n">
-        <v>96720</v>
+        <v>90480</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3129,25 +3129,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3157,10 +3157,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>760437</v>
+        <v>760519</v>
       </c>
       <c r="R24" t="n">
-        <v>7210197</v>
+        <v>7210363</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178517</v>
+        <v>112178526</v>
       </c>
       <c r="B25" t="n">
-        <v>90466</v>
+        <v>90814</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3239,21 +3239,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4769</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>760128</v>
+        <v>760256</v>
       </c>
       <c r="R25" t="n">
-        <v>7210459</v>
+        <v>7210384</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178539</v>
+        <v>112178522</v>
       </c>
       <c r="B26" t="n">
-        <v>90466</v>
+        <v>85448</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3341,25 +3341,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4769</v>
+        <v>3739</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>760354</v>
+        <v>760108</v>
       </c>
       <c r="R26" t="n">
-        <v>7210135</v>
+        <v>7210439</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178538</v>
+        <v>112178539</v>
       </c>
       <c r="B27" t="n">
-        <v>98872</v>
+        <v>90480</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3451,21 +3451,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222771</v>
+        <v>4769</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>760363</v>
+        <v>760354</v>
       </c>
       <c r="R27" t="n">
-        <v>7210127</v>
+        <v>7210135</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178535</v>
+        <v>112178537</v>
       </c>
       <c r="B28" t="n">
-        <v>102166</v>
+        <v>96735</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3553,25 +3553,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222412</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>760389</v>
+        <v>760382</v>
       </c>
       <c r="R28" t="n">
-        <v>7210155</v>
+        <v>7210147</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178520</v>
+        <v>112178516</v>
       </c>
       <c r="B29" t="n">
-        <v>96753</v>
+        <v>89331</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3663,21 +3663,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>219874</v>
+        <v>3215</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>760092</v>
+        <v>760126</v>
       </c>
       <c r="R29" t="n">
-        <v>7210449</v>
+        <v>7210471</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178524</v>
+        <v>112178514</v>
       </c>
       <c r="B30" t="n">
-        <v>90812</v>
+        <v>102192</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3769,21 +3769,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4366</v>
+        <v>222412</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3793,10 +3793,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>760203</v>
+        <v>760068</v>
       </c>
       <c r="R30" t="n">
-        <v>7210420</v>
+        <v>7210453</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -1739,10 +1739,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178532</v>
+        <v>112178535</v>
       </c>
       <c r="B11" t="n">
-        <v>90480</v>
+        <v>102192</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1755,21 +1755,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>760411</v>
+        <v>760389</v>
       </c>
       <c r="R11" t="n">
-        <v>7210179</v>
+        <v>7210155</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178540</v>
+        <v>112178521</v>
       </c>
       <c r="B12" t="n">
         <v>90480</v>
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>760340</v>
+        <v>760097</v>
       </c>
       <c r="R12" t="n">
-        <v>7210120</v>
+        <v>7210441</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178517</v>
+        <v>112178529</v>
       </c>
       <c r="B13" t="n">
         <v>90480</v>
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>760128</v>
+        <v>760450</v>
       </c>
       <c r="R13" t="n">
-        <v>7210459</v>
+        <v>7210211</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178515</v>
+        <v>112178540</v>
       </c>
       <c r="B14" t="n">
         <v>90480</v>
@@ -2097,10 +2097,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>760089</v>
+        <v>760340</v>
       </c>
       <c r="R14" t="n">
-        <v>7210467</v>
+        <v>7210120</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178521</v>
+        <v>112178530</v>
       </c>
       <c r="B15" t="n">
-        <v>90480</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2175,25 +2175,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>760097</v>
+        <v>760431</v>
       </c>
       <c r="R15" t="n">
-        <v>7210441</v>
+        <v>7210191</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178524</v>
+        <v>112178537</v>
       </c>
       <c r="B16" t="n">
-        <v>90826</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,25 +2281,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>760203</v>
+        <v>760382</v>
       </c>
       <c r="R16" t="n">
-        <v>7210420</v>
+        <v>7210147</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178538</v>
+        <v>112178526</v>
       </c>
       <c r="B17" t="n">
-        <v>98891</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2391,21 +2391,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222771</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>760363</v>
+        <v>760256</v>
       </c>
       <c r="R17" t="n">
-        <v>7210127</v>
+        <v>7210384</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178530</v>
+        <v>112178517</v>
       </c>
       <c r="B18" t="n">
-        <v>96735</v>
+        <v>90480</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2493,25 +2493,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>760431</v>
+        <v>760128</v>
       </c>
       <c r="R18" t="n">
-        <v>7210191</v>
+        <v>7210459</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178519</v>
+        <v>112178538</v>
       </c>
       <c r="B19" t="n">
-        <v>85400</v>
+        <v>98891</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2603,21 +2603,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1988</v>
+        <v>222771</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2627,10 +2627,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>760104</v>
+        <v>760363</v>
       </c>
       <c r="R19" t="n">
-        <v>7210466</v>
+        <v>7210127</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178535</v>
+        <v>112178515</v>
       </c>
       <c r="B20" t="n">
-        <v>102192</v>
+        <v>90480</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2709,21 +2709,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>760389</v>
+        <v>760089</v>
       </c>
       <c r="R20" t="n">
-        <v>7210155</v>
+        <v>7210467</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178518</v>
+        <v>112178516</v>
       </c>
       <c r="B21" t="n">
-        <v>85448</v>
+        <v>89331</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2811,25 +2811,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3739</v>
+        <v>3215</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>760120</v>
+        <v>760126</v>
       </c>
       <c r="R21" t="n">
-        <v>7210456</v>
+        <v>7210471</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178520</v>
+        <v>112178524</v>
       </c>
       <c r="B22" t="n">
-        <v>96768</v>
+        <v>90826</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2921,21 +2921,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219874</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2945,10 +2945,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>760092</v>
+        <v>760203</v>
       </c>
       <c r="R22" t="n">
-        <v>7210449</v>
+        <v>7210420</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178529</v>
+        <v>112178514</v>
       </c>
       <c r="B23" t="n">
-        <v>90480</v>
+        <v>102192</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3027,21 +3027,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>760450</v>
+        <v>760068</v>
       </c>
       <c r="R23" t="n">
-        <v>7210211</v>
+        <v>7210453</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178528</v>
+        <v>112178518</v>
       </c>
       <c r="B24" t="n">
-        <v>90480</v>
+        <v>85448</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3129,25 +3129,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4769</v>
+        <v>3739</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3157,10 +3157,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>760519</v>
+        <v>760120</v>
       </c>
       <c r="R24" t="n">
-        <v>7210363</v>
+        <v>7210456</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178526</v>
+        <v>112178528</v>
       </c>
       <c r="B25" t="n">
-        <v>90814</v>
+        <v>90480</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3239,21 +3239,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>4769</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>760256</v>
+        <v>760519</v>
       </c>
       <c r="R25" t="n">
-        <v>7210384</v>
+        <v>7210363</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178522</v>
+        <v>112178519</v>
       </c>
       <c r="B26" t="n">
-        <v>85448</v>
+        <v>85400</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3341,25 +3341,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3739</v>
+        <v>1988</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>760108</v>
+        <v>760104</v>
       </c>
       <c r="R26" t="n">
-        <v>7210439</v>
+        <v>7210466</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178539</v>
+        <v>112178522</v>
       </c>
       <c r="B27" t="n">
-        <v>90480</v>
+        <v>85448</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3447,25 +3447,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4769</v>
+        <v>3739</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>760354</v>
+        <v>760108</v>
       </c>
       <c r="R27" t="n">
-        <v>7210135</v>
+        <v>7210439</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178537</v>
+        <v>112178532</v>
       </c>
       <c r="B28" t="n">
-        <v>96735</v>
+        <v>90480</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3553,25 +3553,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>760382</v>
+        <v>760411</v>
       </c>
       <c r="R28" t="n">
-        <v>7210147</v>
+        <v>7210179</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178516</v>
+        <v>112178539</v>
       </c>
       <c r="B29" t="n">
-        <v>89331</v>
+        <v>90480</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3663,21 +3663,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>760126</v>
+        <v>760354</v>
       </c>
       <c r="R29" t="n">
-        <v>7210471</v>
+        <v>7210135</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178514</v>
+        <v>112178520</v>
       </c>
       <c r="B30" t="n">
-        <v>102192</v>
+        <v>96768</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3769,21 +3769,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222412</v>
+        <v>219874</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3793,10 +3793,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>760068</v>
+        <v>760092</v>
       </c>
       <c r="R30" t="n">
-        <v>7210453</v>
+        <v>7210449</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -2481,7 +2481,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178517</v>
+        <v>112178515</v>
       </c>
       <c r="B18" t="n">
         <v>90480</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>760128</v>
+        <v>760089</v>
       </c>
       <c r="R18" t="n">
-        <v>7210459</v>
+        <v>7210467</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178538</v>
+        <v>112178516</v>
       </c>
       <c r="B19" t="n">
-        <v>98891</v>
+        <v>89331</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2603,21 +2603,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222771</v>
+        <v>3215</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2627,10 +2627,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>760363</v>
+        <v>760126</v>
       </c>
       <c r="R19" t="n">
-        <v>7210127</v>
+        <v>7210471</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178515</v>
+        <v>112178517</v>
       </c>
       <c r="B20" t="n">
         <v>90480</v>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>760089</v>
+        <v>760128</v>
       </c>
       <c r="R20" t="n">
-        <v>7210467</v>
+        <v>7210459</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178516</v>
+        <v>112178538</v>
       </c>
       <c r="B21" t="n">
-        <v>89331</v>
+        <v>98891</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2815,21 +2815,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3215</v>
+        <v>222771</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>760126</v>
+        <v>760363</v>
       </c>
       <c r="R21" t="n">
-        <v>7210471</v>
+        <v>7210127</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 26728-2021.xlsx
+++ b/artfynd/A 26728-2021.xlsx
@@ -1739,10 +1739,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178535</v>
+        <v>112178529</v>
       </c>
       <c r="B11" t="n">
-        <v>102192</v>
+        <v>90480</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1755,21 +1755,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>760389</v>
+        <v>760450</v>
       </c>
       <c r="R11" t="n">
-        <v>7210155</v>
+        <v>7210211</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178521</v>
+        <v>112178538</v>
       </c>
       <c r="B12" t="n">
-        <v>90480</v>
+        <v>98891</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,21 +1861,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>222771</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>760097</v>
+        <v>760363</v>
       </c>
       <c r="R12" t="n">
-        <v>7210441</v>
+        <v>7210127</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178529</v>
+        <v>112178516</v>
       </c>
       <c r="B13" t="n">
-        <v>90480</v>
+        <v>89331</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1967,21 +1967,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>760450</v>
+        <v>760126</v>
       </c>
       <c r="R13" t="n">
-        <v>7210211</v>
+        <v>7210471</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178540</v>
+        <v>112178514</v>
       </c>
       <c r="B14" t="n">
-        <v>90480</v>
+        <v>102192</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2073,21 +2073,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2097,10 +2097,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>760340</v>
+        <v>760068</v>
       </c>
       <c r="R14" t="n">
-        <v>7210120</v>
+        <v>7210453</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178530</v>
+        <v>112178519</v>
       </c>
       <c r="B15" t="n">
-        <v>96735</v>
+        <v>85400</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2175,25 +2175,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>1988</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>760431</v>
+        <v>760104</v>
       </c>
       <c r="R15" t="n">
-        <v>7210191</v>
+        <v>7210466</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178537</v>
+        <v>112178524</v>
       </c>
       <c r="B16" t="n">
-        <v>96735</v>
+        <v>90826</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,25 +2281,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>760382</v>
+        <v>760203</v>
       </c>
       <c r="R16" t="n">
-        <v>7210147</v>
+        <v>7210420</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178526</v>
+        <v>112178521</v>
       </c>
       <c r="B17" t="n">
-        <v>90814</v>
+        <v>90480</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2391,21 +2391,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>760256</v>
+        <v>760097</v>
       </c>
       <c r="R17" t="n">
-        <v>7210384</v>
+        <v>7210441</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178515</v>
+        <v>112178537</v>
       </c>
       <c r="B18" t="n">
-        <v>90480</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2493,25 +2493,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>760089</v>
+        <v>760382</v>
       </c>
       <c r="R18" t="n">
-        <v>7210467</v>
+        <v>7210147</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178516</v>
+        <v>112178522</v>
       </c>
       <c r="B19" t="n">
-        <v>89331</v>
+        <v>85448</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2599,25 +2599,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3215</v>
+        <v>3739</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2627,10 +2627,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>760126</v>
+        <v>760108</v>
       </c>
       <c r="R19" t="n">
-        <v>7210471</v>
+        <v>7210439</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178517</v>
+        <v>112178539</v>
       </c>
       <c r="B20" t="n">
         <v>90480</v>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>760128</v>
+        <v>760354</v>
       </c>
       <c r="R20" t="n">
-        <v>7210459</v>
+        <v>7210135</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178538</v>
+        <v>112178528</v>
       </c>
       <c r="B21" t="n">
-        <v>98891</v>
+        <v>90480</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2815,21 +2815,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222771</v>
+        <v>4769</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>760363</v>
+        <v>760519</v>
       </c>
       <c r="R21" t="n">
-        <v>7210127</v>
+        <v>7210363</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178524</v>
+        <v>112178520</v>
       </c>
       <c r="B22" t="n">
-        <v>90826</v>
+        <v>96768</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2921,21 +2921,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4366</v>
+        <v>219874</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2945,10 +2945,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>760203</v>
+        <v>760092</v>
       </c>
       <c r="R22" t="n">
-        <v>7210420</v>
+        <v>7210449</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178514</v>
+        <v>112178535</v>
       </c>
       <c r="B23" t="n">
         <v>102192</v>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>760068</v>
+        <v>760389</v>
       </c>
       <c r="R23" t="n">
-        <v>7210453</v>
+        <v>7210155</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178518</v>
+        <v>112178530</v>
       </c>
       <c r="B24" t="n">
-        <v>85448</v>
+        <v>96735</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3129,25 +3129,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3739</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3157,10 +3157,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>760120</v>
+        <v>760431</v>
       </c>
       <c r="R24" t="n">
-        <v>7210456</v>
+        <v>7210191</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178528</v>
+        <v>112178518</v>
       </c>
       <c r="B25" t="n">
-        <v>90480</v>
+        <v>85448</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4769</v>
+        <v>3739</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>760519</v>
+        <v>760120</v>
       </c>
       <c r="R25" t="n">
-        <v>7210363</v>
+        <v>7210456</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178519</v>
+        <v>112178517</v>
       </c>
       <c r="B26" t="n">
-        <v>85400</v>
+        <v>90480</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3345,21 +3345,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1988</v>
+        <v>4769</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>760104</v>
+        <v>760128</v>
       </c>
       <c r="R26" t="n">
-        <v>7210466</v>
+        <v>7210459</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178522</v>
+        <v>112178532</v>
       </c>
       <c r="B27" t="n">
-        <v>85448</v>
+        <v>90480</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3447,25 +3447,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3739</v>
+        <v>4769</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>760108</v>
+        <v>760411</v>
       </c>
       <c r="R27" t="n">
-        <v>7210439</v>
+        <v>7210179</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178532</v>
+        <v>112178526</v>
       </c>
       <c r="B28" t="n">
-        <v>90480</v>
+        <v>90814</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3557,21 +3557,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4769</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>760411</v>
+        <v>760256</v>
       </c>
       <c r="R28" t="n">
-        <v>7210179</v>
+        <v>7210384</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178539</v>
+        <v>112178540</v>
       </c>
       <c r="B29" t="n">
         <v>90480</v>
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>760354</v>
+        <v>760340</v>
       </c>
       <c r="R29" t="n">
-        <v>7210135</v>
+        <v>7210120</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178520</v>
+        <v>112178515</v>
       </c>
       <c r="B30" t="n">
-        <v>96768</v>
+        <v>90480</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3769,21 +3769,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>219874</v>
+        <v>4769</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3793,10 +3793,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>760092</v>
+        <v>760089</v>
       </c>
       <c r="R30" t="n">
-        <v>7210449</v>
+        <v>7210467</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
